--- a/plantillas/LibroCaja.xlsx
+++ b/plantillas/LibroCaja.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USAT\2024-2\calidad\GOTA_A_GOTA\grupogota_servidor\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66321AC5-7C0D-4571-9217-59CDF552F7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7411A5E1-0856-4D95-AC7A-8E008AE67618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="9" state="hidden" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
   <si>
     <t xml:space="preserve">SALDO  INICIAL </t>
   </si>
@@ -416,27 +416,6 @@
     <t>CÓDIGO DE LA CUENTA CORRIENTE:</t>
   </si>
   <si>
-    <t xml:space="preserve">NÚMERO CORRELATIVO DEL REGISTRO  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     DESCRIPCIÓN DE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     FECHA DE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   LA OPERACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> O CÓDIGO ÚNICO DE LA OPERACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         SALDOS Y MOVIMIENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     ACREEDOR</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                     OPERACIONES BANCARIAS</t>
   </si>
   <si>
@@ -491,24 +470,12 @@
     <t xml:space="preserve"> CUENTA CONTABLE ASOCIADA</t>
   </si>
   <si>
-    <t xml:space="preserve">      CÓDIGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DENOMINACIÓN</t>
-  </si>
-  <si>
     <t xml:space="preserve">     TOTALES</t>
   </si>
   <si>
     <t xml:space="preserve">    TOTALES</t>
   </si>
   <si>
-    <t xml:space="preserve">  CUENTA CONTABLE ASOCIADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        LA OPERACIÓN</t>
-  </si>
-  <si>
     <t xml:space="preserve">     NÚMERO DE TRANSACCIÓN BANCARIA,</t>
   </si>
   <si>
@@ -519,15 +486,42 @@
   </si>
   <si>
     <t>DECO ELERA S.A.C.</t>
+  </si>
+  <si>
+    <t>NÚMERO CORRELATIVO DEL REGISTRO O CÓDIGO ÚNICO DE LA OPERACIÓN</t>
+  </si>
+  <si>
+    <t>FECHA DE LA OPERACIÓN</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN DE LA OPERACIÓN</t>
+  </si>
+  <si>
+    <t>CUENTA CONTABLE ASOCIADA</t>
+  </si>
+  <si>
+    <t>CÓDIGO</t>
+  </si>
+  <si>
+    <t>DENOMINACIÓN</t>
+  </si>
+  <si>
+    <t>SALDOS Y MOVIMIENTOS</t>
+  </si>
+  <si>
+    <t>DEUDOR</t>
+  </si>
+  <si>
+    <t>ACREEDOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="182" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="183" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -537,6 +531,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -863,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -966,10 +961,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -989,7 +984,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1134,39 +1129,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1185,6 +1147,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1209,12 +1174,12 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1227,8 +1192,29 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4565,7 +4551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4581,7 +4567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="H1:AA47"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -4591,48 +4577,48 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="8:27" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="155"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="144"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="144"/>
     </row>
     <row r="2" spans="8:27" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
     </row>
     <row r="3" spans="8:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H3" s="64"/>
@@ -4900,26 +4886,26 @@
       <c r="AA16" s="15"/>
     </row>
     <row r="17" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="167"/>
-      <c r="P17" s="168"/>
-      <c r="Q17" s="167"/>
-      <c r="R17" s="167"/>
-      <c r="S17" s="167"/>
-      <c r="T17" s="167"/>
-      <c r="U17" s="167"/>
-      <c r="V17" s="167"/>
-      <c r="W17" s="167"/>
-      <c r="X17" s="167"/>
-      <c r="Y17" s="167"/>
-      <c r="Z17" s="167"/>
-      <c r="AA17" s="167"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="157"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="148"/>
+      <c r="S17" s="148"/>
+      <c r="T17" s="148"/>
+      <c r="U17" s="148"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="148"/>
+      <c r="X17" s="148"/>
+      <c r="Y17" s="148"/>
+      <c r="Z17" s="148"/>
+      <c r="AA17" s="148"/>
     </row>
     <row r="18" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H18" s="72"/>
@@ -4929,19 +4915,19 @@
       <c r="L18" s="96"/>
       <c r="M18" s="97"/>
       <c r="N18" s="98"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="163"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="153"/>
       <c r="Q18" s="99"/>
       <c r="R18" s="100"/>
-      <c r="S18" s="164"/>
-      <c r="T18" s="164"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="154"/>
       <c r="U18" s="101"/>
       <c r="V18" s="102"/>
-      <c r="W18" s="164"/>
-      <c r="X18" s="164"/>
+      <c r="W18" s="154"/>
+      <c r="X18" s="154"/>
       <c r="Y18" s="98"/>
-      <c r="Z18" s="164"/>
-      <c r="AA18" s="164"/>
+      <c r="Z18" s="154"/>
+      <c r="AA18" s="154"/>
     </row>
     <row r="19" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H19" s="79"/>
@@ -5186,12 +5172,12 @@
       <c r="AA29" s="61"/>
     </row>
     <row r="30" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H30" s="159"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="160"/>
-      <c r="M30" s="161"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="151"/>
       <c r="N30" s="68"/>
       <c r="O30" s="68"/>
       <c r="P30" s="68"/>
@@ -5516,6 +5502,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="H2:AA2"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
     <mergeCell ref="Q17:T17"/>
     <mergeCell ref="U17:X17"/>
     <mergeCell ref="Y17:AA17"/>
@@ -5524,11 +5515,6 @@
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="W18:X18"/>
     <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="H2:AA2"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -5537,7 +5523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5551,7 +5537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5585,28 +5571,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
@@ -6036,38 +6022,38 @@
       <c r="T17" s="15"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A18" s="156" t="s">
+      <c r="A18" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="156"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156" t="s">
+      <c r="B18" s="145"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156" t="s">
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="156"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="156" t="s">
+      <c r="H18" s="145"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156" t="s">
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="156"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="156" t="s">
+      <c r="O18" s="145"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="S18" s="156"/>
-      <c r="T18" s="156"/>
+      <c r="S18" s="145"/>
+      <c r="T18" s="145"/>
     </row>
     <row r="19" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
@@ -6077,27 +6063,27 @@
       <c r="E19" s="49"/>
       <c r="F19" s="46"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="169" t="s">
+      <c r="H19" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="170"/>
+      <c r="I19" s="160"/>
       <c r="J19" s="47"/>
       <c r="K19" s="53"/>
-      <c r="L19" s="171" t="s">
+      <c r="L19" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="171"/>
+      <c r="M19" s="161"/>
       <c r="N19" s="45"/>
       <c r="O19" s="46"/>
-      <c r="P19" s="171" t="s">
+      <c r="P19" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="Q19" s="171"/>
+      <c r="Q19" s="161"/>
       <c r="R19" s="35"/>
-      <c r="S19" s="171" t="s">
+      <c r="S19" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="T19" s="171"/>
+      <c r="T19" s="161"/>
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
@@ -6925,14 +6911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6975,7 +6961,7 @@
       <c r="A4" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="111">
+      <c r="B4" s="143">
         <v>20612188930</v>
       </c>
       <c r="C4" s="106"/>
@@ -6989,7 +6975,7 @@
       <c r="B5" s="111"/>
       <c r="C5" s="106"/>
       <c r="D5" s="106" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E5" s="106"/>
     </row>
@@ -7001,50 +6987,44 @@
       <c r="E6" s="106"/>
     </row>
     <row r="7" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="142" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="143" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="144" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="145" t="s">
+      <c r="A7" s="163" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="163" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="163" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="168" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="167"/>
+      <c r="F7" s="169" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="170"/>
+    </row>
+    <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="164"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="165" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="146"/>
-      <c r="F7" s="147" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="147"/>
-    </row>
-    <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="149" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="150" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="151" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="152" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="152" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="152" t="s">
-        <v>70</v>
+      <c r="F8" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="166" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="153" t="s">
-        <v>91</v>
+      <c r="E9" s="142" t="s">
+        <v>82</v>
       </c>
       <c r="F9" s="109"/>
       <c r="G9" s="109"/>
@@ -7056,6 +7036,13 @@
       <c r="A12" s="113"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.98425196850393704" bottom="1" header="0" footer="0"/>
@@ -7065,7 +7052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7182,42 +7169,42 @@
     </row>
     <row r="9" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="115" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B9" s="116"/>
       <c r="C9" s="117" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D9" s="117"/>
       <c r="E9" s="117"/>
       <c r="F9" s="119"/>
       <c r="G9" s="120" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H9" s="120"/>
       <c r="I9" s="121" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J9" s="121"/>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="126" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="127" t="s">
         <v>84</v>
-      </c>
-      <c r="B10" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="125" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="125" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="126" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="127" t="s">
-        <v>95</v>
       </c>
       <c r="G10" s="128"/>
       <c r="H10" s="128"/>
@@ -7226,34 +7213,34 @@
     </row>
     <row r="11" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="130" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C11" s="124" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D11" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="133" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="131" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="132" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="133" t="s">
-        <v>86</v>
-      </c>
       <c r="I11" s="133" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J11" s="134" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7263,7 +7250,7 @@
       <c r="D12" s="137"/>
       <c r="E12" s="137"/>
       <c r="F12" s="138" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G12" s="139"/>
       <c r="H12" s="139"/>
@@ -7344,8 +7331,8 @@
     </row>
     <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F19" s="10"/>
-      <c r="H19" s="154" t="s">
-        <v>92</v>
+      <c r="H19" s="143" t="s">
+        <v>83</v>
       </c>
       <c r="I19" s="109"/>
       <c r="J19" s="109"/>
@@ -7375,7 +7362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7402,20 +7389,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -7603,27 +7590,27 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="156" t="s">
+      <c r="A14" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156" t="s">
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="156"/>
-      <c r="F14" s="158"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="147"/>
       <c r="G14" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="157" t="s">
+      <c r="H14" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156" t="s">
+      <c r="I14" s="145"/>
+      <c r="J14" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="156"/>
+      <c r="K14" s="145"/>
       <c r="L14" s="19" t="s">
         <v>6</v>
       </c>
@@ -8114,7 +8101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8128,7 +8115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8142,7 +8129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8156,7 +8143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8170,7 +8157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/plantillas/LibroCaja.xlsx
+++ b/plantillas/LibroCaja.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USAT\2024-2\calidad\GOTA_A_GOTA\grupogota_servidor\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Documents\grupogota_servidor\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7411A5E1-0856-4D95-AC7A-8E008AE67618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F829DB-62E6-4EB6-B355-0D7C7DCA4EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="9" state="hidden" r:id="rId1"/>
     <sheet name="F1.1 Detalle mov efectivo" sheetId="41" r:id="rId2"/>
-    <sheet name="F1.2 Detalle mov cta cte" sheetId="43" r:id="rId3"/>
-    <sheet name="Aux.Uni" sheetId="7" state="hidden" r:id="rId4"/>
-    <sheet name="Hoja7" sheetId="15" state="hidden" r:id="rId5"/>
-    <sheet name="Hoja6" sheetId="14" state="hidden" r:id="rId6"/>
-    <sheet name="Hoja4" sheetId="12" state="hidden" r:id="rId7"/>
-    <sheet name="Hoja5" sheetId="13" state="hidden" r:id="rId8"/>
-    <sheet name="Hoja8" sheetId="16" state="hidden" r:id="rId9"/>
-    <sheet name="Hoja9" sheetId="17" state="hidden" r:id="rId10"/>
-    <sheet name="Hoja2" sheetId="10" state="hidden" r:id="rId11"/>
-    <sheet name="Aux.Val" sheetId="8" state="hidden" r:id="rId12"/>
+    <sheet name="Aux.Uni" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="Hoja7" sheetId="15" state="hidden" r:id="rId4"/>
+    <sheet name="Hoja6" sheetId="14" state="hidden" r:id="rId5"/>
+    <sheet name="Hoja4" sheetId="12" state="hidden" r:id="rId6"/>
+    <sheet name="Hoja5" sheetId="13" state="hidden" r:id="rId7"/>
+    <sheet name="Hoja8" sheetId="16" state="hidden" r:id="rId8"/>
+    <sheet name="Hoja9" sheetId="17" state="hidden" r:id="rId9"/>
+    <sheet name="Hoja2" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="Aux.Val" sheetId="8" state="hidden" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="VENCII">[1]CRONOGRAMA!$C$83:$D$452</definedName>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t xml:space="preserve">SALDO  INICIAL </t>
   </si>
@@ -404,85 +403,10 @@
     <t>APELLIDOS Y NOMBRES, DENOMINACIÓN O RAZÓN SOCIAL:</t>
   </si>
   <si>
-    <t>ENTIDAD FINANCIERA:</t>
-  </si>
-  <si>
-    <t>FORMATO 1.2: "LIBRO CAJA Y BANCOS - DETALLE DE LOS MOVIMIENTOS DE LA CUENTA CORRIENTE"</t>
-  </si>
-  <si>
     <t>FORMATO 1.1: "LIBRO CAJA Y BANCOS - DETALLE DE LOS MOVIMIENTOS DEL EFECTIVO"</t>
   </si>
   <si>
-    <t>CÓDIGO DE LA CUENTA CORRIENTE:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                     OPERACIONES BANCARIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   CÓDIGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        SALDOS Y MOVIMIENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ACREEDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ÚNICO DE LA OPERACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA OPERACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    (TABLA 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MEDIO DE PAGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  LA OPERACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DESCRIPCIÓN DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DENOMINACIÓN O RAZÓN SOCIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         APELLIDOS Y NOMBRES,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FECHA DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DEL REGISTRO  O CÓDIGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   NÚMERO CORRELATIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   DENOMINACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         DEUDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CUENTA CONTABLE ASOCIADA</t>
-  </si>
-  <si>
     <t xml:space="preserve">     TOTALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TOTALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     NÚMERO DE TRANSACCIÓN BANCARIA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     DE DOCUMENTO SUSTENTATORIO O DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     CONTROL INTERNO DE LA OPERACIÓN</t>
   </si>
   <si>
     <t>DECO ELERA S.A.C.</t>
@@ -523,7 +447,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -641,18 +565,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7.5"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -858,27 +770,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,7 +812,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -916,7 +821,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -985,23 +890,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1041,99 +944,39 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1147,7 +990,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,15 +1020,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1191,30 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,7 +1053,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CARATULA"/>
@@ -4256,9 +4075,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4296,7 +4115,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4402,7 +4221,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4544,7 +4363,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4558,7 +4377,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -4567,955 +4386,13 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="H1:AA47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="8:27" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="144"/>
-    </row>
-    <row r="2" spans="8:27" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="144"/>
-    </row>
-    <row r="3" spans="8:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-    </row>
-    <row r="4" spans="8:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-    </row>
-    <row r="5" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H5" s="52"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="V5" s="8"/>
-      <c r="X5" s="12"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-    </row>
-    <row r="6" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="V6" s="8"/>
-      <c r="X6" s="12"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-    </row>
-    <row r="7" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H7" s="52"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="V7" s="8"/>
-      <c r="X7" s="12"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-    </row>
-    <row r="8" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="V8" s="8"/>
-      <c r="X8" s="12"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-    </row>
-    <row r="9" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H9" s="52"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="V9" s="8"/>
-      <c r="X9" s="12"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-    </row>
-    <row r="10" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="V10" s="8"/>
-      <c r="X10" s="12"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-    </row>
-    <row r="11" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H11" s="52"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="12"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="12"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-    </row>
-    <row r="12" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="12"/>
-      <c r="T12" s="16"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="12"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-    </row>
-    <row r="13" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H13" s="52"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="12"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="8"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-    </row>
-    <row r="14" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="12"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="52"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-    </row>
-    <row r="15" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H15" s="52"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="8"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-    </row>
-    <row r="16" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-    </row>
-    <row r="17" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="148"/>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="148"/>
-    </row>
-    <row r="18" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="154"/>
-      <c r="T18" s="154"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="102"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="154"/>
-      <c r="AA18" s="154"/>
-    </row>
-    <row r="19" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-    </row>
-    <row r="20" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H20" s="44"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="60"/>
-    </row>
-    <row r="21" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H21" s="44"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="58"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-    </row>
-    <row r="22" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-    </row>
-    <row r="23" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-    </row>
-    <row r="24" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="61"/>
-    </row>
-    <row r="25" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="61"/>
-    </row>
-    <row r="26" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="61"/>
-      <c r="AA26" s="61"/>
-    </row>
-    <row r="27" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="61"/>
-      <c r="AA27" s="61"/>
-    </row>
-    <row r="28" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-    </row>
-    <row r="29" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="61"/>
-      <c r="AA29" s="61"/>
-    </row>
-    <row r="30" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H30" s="149"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="75"/>
-    </row>
-    <row r="31" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-    </row>
-    <row r="32" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H32" s="71"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-    </row>
-    <row r="33" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H33" s="29"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-    </row>
-    <row r="34" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H34" s="78"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="U34" s="92"/>
-      <c r="V34" s="80"/>
-      <c r="W34" s="80"/>
-      <c r="X34" s="80"/>
-      <c r="Y34" s="80"/>
-      <c r="Z34" s="103"/>
-      <c r="AA34" s="8"/>
-    </row>
-    <row r="35" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H35" s="93"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="U35" s="93"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="88"/>
-      <c r="Y35" s="88"/>
-      <c r="Z35" s="104"/>
-      <c r="AA35" s="8"/>
-    </row>
-    <row r="36" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H36" s="85"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="86"/>
-      <c r="W36" s="83"/>
-      <c r="X36" s="83"/>
-      <c r="Y36" s="88"/>
-      <c r="Z36" s="104"/>
-      <c r="AA36" s="8"/>
-    </row>
-    <row r="37" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H37" s="85"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="86"/>
-      <c r="W37" s="83"/>
-      <c r="X37" s="88"/>
-      <c r="Y37" s="88"/>
-      <c r="Z37" s="104"/>
-      <c r="AA37" s="8"/>
-    </row>
-    <row r="38" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H38" s="85"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="U38" s="85"/>
-      <c r="V38" s="86"/>
-      <c r="W38" s="83"/>
-      <c r="X38" s="88"/>
-      <c r="Y38" s="88"/>
-      <c r="Z38" s="104"/>
-      <c r="AA38" s="8"/>
-    </row>
-    <row r="39" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H39" s="85"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="U39" s="85"/>
-      <c r="V39" s="86"/>
-      <c r="W39" s="83"/>
-      <c r="X39" s="88"/>
-      <c r="Y39" s="88"/>
-      <c r="Z39" s="104"/>
-      <c r="AA39" s="8"/>
-    </row>
-    <row r="40" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H40" s="85"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="U40" s="85"/>
-      <c r="V40" s="83"/>
-      <c r="W40" s="88"/>
-      <c r="X40" s="88"/>
-      <c r="Y40" s="88"/>
-      <c r="Z40" s="104"/>
-      <c r="AA40" s="8"/>
-    </row>
-    <row r="41" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H41" s="85"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="U41" s="93"/>
-      <c r="V41" s="82"/>
-      <c r="W41" s="88"/>
-      <c r="X41" s="88"/>
-      <c r="Y41" s="88"/>
-      <c r="Z41" s="104"/>
-      <c r="AA41" s="8"/>
-    </row>
-    <row r="42" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H42" s="85"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="U42" s="85"/>
-      <c r="V42" s="86"/>
-      <c r="W42" s="83"/>
-      <c r="X42" s="88"/>
-      <c r="Y42" s="88"/>
-      <c r="Z42" s="104"/>
-      <c r="AA42" s="8"/>
-    </row>
-    <row r="43" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H43" s="85"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="U43" s="85"/>
-      <c r="V43" s="86"/>
-      <c r="W43" s="83"/>
-      <c r="X43" s="88"/>
-      <c r="Y43" s="88"/>
-      <c r="Z43" s="87"/>
-    </row>
-    <row r="44" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H44" s="89"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="U44" s="89"/>
-      <c r="V44" s="94"/>
-      <c r="W44" s="90"/>
-      <c r="X44" s="90"/>
-      <c r="Y44" s="90"/>
-      <c r="Z44" s="105"/>
-    </row>
-    <row r="45" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="77"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="76"/>
-    </row>
-    <row r="46" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H46" s="11"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-    </row>
-    <row r="47" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="H2:AA2"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Z18:AA18"/>
-  </mergeCells>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -5523,567 +4400,427 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BJ48"/>
+  <dimension ref="A1:BJ44"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" zoomScale="85" workbookViewId="0">
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="8" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" style="8" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" customWidth="1"/>
-    <col min="19" max="20" width="8.6640625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" customWidth="1"/>
-    <col min="22" max="22" width="7.88671875" customWidth="1"/>
-    <col min="23" max="23" width="6.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="20" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-    </row>
-    <row r="2" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="9"/>
-    </row>
-    <row r="3" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="9"/>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9"/>
-      <c r="BH3" s="9"/>
-      <c r="BI3" s="9"/>
-      <c r="BJ3" s="9"/>
-    </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="Q5" s="12"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="Q6" s="12"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="B5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="Q7" s="12"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="Q8" s="12"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="B7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="Q9" s="12"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="Q10" s="12"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-    </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="B9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="D11" s="18"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="12"/>
-      <c r="L11" s="52" t="s">
+      <c r="B11" s="9"/>
+      <c r="D11" s="12"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="9"/>
+      <c r="L11" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="Q11" s="12"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-    </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="17"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="12"/>
-      <c r="M12" s="16"/>
-      <c r="Q12" s="12"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-    </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="M11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="12"/>
-      <c r="L13" s="55" t="s">
+      <c r="B13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="9"/>
+      <c r="L13" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-    </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="52"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="12"/>
-      <c r="L14" s="16"/>
-      <c r="Q14" s="52"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-    </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="45"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="Q14" s="45"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="12"/>
-      <c r="L15" s="52" t="s">
+      <c r="B15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="9"/>
+      <c r="L15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-    </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="12"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-    </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-    </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A18" s="145" t="s">
+      <c r="M15" s="9"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A18" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="145"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145" t="s">
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145" t="s">
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="145"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="145" t="s">
+      <c r="H18" s="114"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="145" t="s">
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="145"/>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="145"/>
-      <c r="R18" s="145" t="s">
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="S18" s="145"/>
-      <c r="T18" s="145"/>
-    </row>
-    <row r="19" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="159" t="s">
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+    </row>
+    <row r="19" spans="1:62" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="160"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="161" t="s">
+      <c r="I19" s="129"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="161"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="161" t="s">
+      <c r="M19" s="130"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="161" t="s">
+      <c r="Q19" s="130"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="T19" s="161"/>
+      <c r="T19" s="130"/>
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
@@ -6127,429 +4864,429 @@
       <c r="BI19"/>
       <c r="BJ19"/>
     </row>
-    <row r="20" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:62" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="N20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="20" t="s">
+      <c r="P20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Q20" s="20" t="s">
+      <c r="Q20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="R20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="S20" s="20" t="s">
+      <c r="S20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="20" t="s">
+      <c r="T20" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A21" s="44">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A21" s="37">
         <v>36986</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="29">
         <v>1</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="37">
         <v>36986</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="29">
         <v>1</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="21">
         <v>100</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="53">
         <v>30</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="53">
         <v>3000</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="29">
         <v>2</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="21">
         <v>20</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L21" s="51">
         <v>40</v>
       </c>
-      <c r="M21" s="58">
+      <c r="M21" s="51">
         <v>800</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="27">
+      <c r="N21" s="29"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="21">
         <v>120</v>
       </c>
-      <c r="S21" s="60">
+      <c r="S21" s="53">
         <f>+T21/R21</f>
         <v>31.666666666666668</v>
       </c>
-      <c r="T21" s="60">
+      <c r="T21" s="53">
         <v>3800</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A22" s="44">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A22" s="37">
         <v>36986</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="29">
         <v>1</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="37">
         <v>36986</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="29">
         <v>1</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="21">
         <v>120</v>
       </c>
-      <c r="H22" s="60">
+      <c r="H22" s="53">
         <v>31.67</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="53">
         <v>3800</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="29">
         <v>2</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="21">
         <v>80</v>
       </c>
-      <c r="L22" s="58">
+      <c r="L22" s="51">
         <v>31.67</v>
       </c>
-      <c r="M22" s="58">
+      <c r="M22" s="51">
         <v>2533.6</v>
       </c>
-      <c r="N22" s="58"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="27">
+      <c r="N22" s="51"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="21">
         <v>200</v>
       </c>
-      <c r="S22" s="60">
+      <c r="S22" s="53">
         <f>+L22</f>
         <v>31.67</v>
       </c>
-      <c r="T22" s="60">
+      <c r="T22" s="53">
         <f>+R22*S22</f>
         <v>6334</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-    </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-    </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-    </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-    </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-    </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-    </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="61"/>
-    </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
-    </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="69" t="s">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67">
+      <c r="E31" s="59"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60">
         <f>+G21</f>
         <v>100</v>
       </c>
-      <c r="H31" s="67">
+      <c r="H31" s="60">
         <f>+H21</f>
         <v>30</v>
       </c>
-      <c r="I31" s="67">
+      <c r="I31" s="60">
         <f>+I21</f>
         <v>3000</v>
       </c>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68">
+      <c r="J31" s="61"/>
+      <c r="K31" s="61">
         <f>+K21+K22</f>
         <v>100</v>
       </c>
-      <c r="L31" s="70">
+      <c r="L31" s="63">
         <v>33.340000000000003</v>
       </c>
-      <c r="M31" s="70">
+      <c r="M31" s="63">
         <f>+M21+M22</f>
         <v>3333.6</v>
       </c>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="68">
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="61">
         <f>+R22</f>
         <v>200</v>
       </c>
-      <c r="S31" s="68">
+      <c r="S31" s="61">
         <f>+S22</f>
         <v>31.67</v>
       </c>
-      <c r="T31" s="68">
+      <c r="T31" s="61">
         <f>+T22</f>
         <v>6334</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="2"/>
@@ -6564,268 +5301,250 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34"/>
-      <c r="T34"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="30" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35"/>
-      <c r="T35"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
         <v>1</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="8">
         <v>7</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="22" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36"/>
-      <c r="T36"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
         <v>2</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="8">
         <v>8</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="22" t="s">
+      <c r="E37" s="17"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37"/>
-      <c r="T37"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
         <v>3</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="22" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38"/>
-      <c r="T38"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
         <v>4</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="22" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39"/>
-      <c r="T39"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
         <v>5</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="28"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="50" t="s">
+      <c r="J40" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40"/>
-      <c r="T40"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
         <v>6</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="28"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="22" t="s">
+      <c r="J41" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="28"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="22"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41"/>
-      <c r="T41"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="44"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="34"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42"/>
-      <c r="T42"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -6834,12 +5553,9 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="O43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
@@ -6847,46 +5563,6 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="J44"/>
-      <c r="O44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="J45"/>
-      <c r="O45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="J46"/>
-      <c r="O46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="J47"/>
-      <c r="O47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="J48"/>
-      <c r="O48"/>
-      <c r="S48"/>
-      <c r="T48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6918,122 +5594,122 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+    </row>
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="101"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+    </row>
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="104">
+        <v>20612188930</v>
+      </c>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+    </row>
+    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="101"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-    </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="111"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-    </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-    </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="143">
-        <v>20612188930</v>
-      </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-    </row>
-    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="97"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-    </row>
-    <row r="7" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="163" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="163" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="163" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="168" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="167"/>
-      <c r="F7" s="169" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="170"/>
-    </row>
-    <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="164"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="166" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="166" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="142" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="113"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="113"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+    </row>
+    <row r="7" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="110"/>
+      <c r="F7" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="112"/>
+    </row>
+    <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="102"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7052,316 +5728,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="10" width="18.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-    </row>
-    <row r="2" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="111"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-    </row>
-    <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-    </row>
-    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-    </row>
-    <row r="5" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-    </row>
-    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-    </row>
-    <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="111" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="111"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-    </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-    </row>
-    <row r="9" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="121"/>
-    </row>
-    <row r="10" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="124" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="125" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="126" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="127" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="129"/>
-    </row>
-    <row r="11" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="124" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="124" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="124" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="131" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="132" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="133" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="133" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="133" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="134" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="135"/>
-      <c r="B12" s="136"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
-    </row>
-    <row r="13" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
-      <c r="B13" s="136"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
-    </row>
-    <row r="14" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="135"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
-    </row>
-    <row r="15" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="136"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="141"/>
-    </row>
-    <row r="16" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-    </row>
-    <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-    </row>
-    <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-    </row>
-    <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="10"/>
-      <c r="H19" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="113"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="113"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="113"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="113"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.75" right="0.75" top="0.59055118110236227" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7372,37 +5738,37 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="8.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" style="2" customWidth="1"/>
-    <col min="14" max="19" width="11.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="2" customWidth="1"/>
+    <col min="14" max="19" width="11.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -7411,19 +5777,19 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+    <row r="2" spans="1:19" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -7432,186 +5798,186 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:19" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:19" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="I7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="H9" s="52" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="H9" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="I9" s="52"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="H11" s="52" t="s">
+      <c r="B11" s="9"/>
+      <c r="H11" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:19" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:19" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="145" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145" t="s">
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="145"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="57" t="s">
+      <c r="E14" s="114"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="146" t="s">
+      <c r="H14" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145" t="s">
+      <c r="I14" s="114"/>
+      <c r="J14" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="145"/>
-      <c r="L14" s="19" t="s">
+      <c r="K14" s="114"/>
+      <c r="L14" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M14" s="1"/>
@@ -7622,467 +5988,424 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="32">
         <v>36986</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="30">
         <v>1</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="37">
         <v>36986</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="29">
         <v>1</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="21">
         <v>100</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="31">
         <v>2</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="20">
         <v>20</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="21">
+      <c r="J16" s="31"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="15">
         <f>+G16+I16-K16</f>
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="42">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="35">
         <v>36986</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="29">
         <v>1</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="35">
         <v>36986</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="29">
         <v>1</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="21">
         <f>+L16</f>
         <v>120</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="41">
         <v>2</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="36">
         <v>80</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="23">
+      <c r="J17" s="29"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="17">
         <f>+G17+I17-K17</f>
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="23"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="23"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="23"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="23"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="23"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="23"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="23"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="23"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="23"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="69" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="66"/>
-      <c r="G27" s="68">
+      <c r="F27" s="59"/>
+      <c r="G27" s="61">
         <f>G16</f>
         <v>100</v>
       </c>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68">
+      <c r="H27" s="61"/>
+      <c r="I27" s="61">
         <f>I16+I17</f>
         <v>100</v>
       </c>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68">
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61">
         <f>L17</f>
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="14"/>
-      <c r="I31" s="30" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="8"/>
+      <c r="I31" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="26"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
         <v>1</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="8">
         <v>7</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="14"/>
-      <c r="I32" s="22" t="s">
+      <c r="E32" s="17"/>
+      <c r="F32" s="8"/>
+      <c r="I32" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
         <v>2</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="8">
         <v>8</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="14"/>
-      <c r="I33" s="22" t="s">
+      <c r="E33" s="17"/>
+      <c r="F33" s="8"/>
+      <c r="I33" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
         <v>3</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="14"/>
-      <c r="I34" s="22" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="8"/>
+      <c r="I34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
         <v>4</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="14"/>
-      <c r="I35" s="22" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="8"/>
+      <c r="I35" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
         <v>5</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="28"/>
-      <c r="I36" s="50" t="s">
+      <c r="E36" s="22"/>
+      <c r="I36" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
+      <c r="L36" s="22"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
         <v>6</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="28"/>
-      <c r="I37" s="22" t="s">
+      <c r="E37" s="22"/>
+      <c r="I37" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
-      <c r="I38" s="24" t="s">
+      <c r="L37" s="22"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="44"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28"/>
+      <c r="I38" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="28"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8100,13 +6423,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -8115,12 +6452,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -8129,12 +6466,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -8143,12 +6480,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -8157,13 +6494,880 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="H1:AA46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="8:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+    </row>
+    <row r="2" spans="8:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+    </row>
+    <row r="3" spans="8:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="8:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+    </row>
+    <row r="5" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H5" s="45"/>
+      <c r="I5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+    </row>
+    <row r="7" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H7" s="45"/>
+      <c r="I7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H9" s="45"/>
+      <c r="I9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H11" s="45"/>
+      <c r="I11" s="9"/>
+      <c r="K11" s="12"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="45"/>
+      <c r="W11" s="9"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+    </row>
+    <row r="12" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H13" s="45"/>
+      <c r="I13" s="9"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="9"/>
+      <c r="U13" s="45"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="45"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="W14" s="45"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+    </row>
+    <row r="15" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H15" s="45"/>
+      <c r="I15" s="9"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="45"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="119"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="119"/>
+      <c r="Z17" s="119"/>
+      <c r="AA17" s="119"/>
+    </row>
+    <row r="18" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H18" s="65"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="126"/>
+      <c r="T18" s="126"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="126"/>
+      <c r="X18" s="126"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="126"/>
+      <c r="AA18" s="126"/>
+    </row>
+    <row r="19" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+    </row>
+    <row r="20" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H20" s="37"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+    </row>
+    <row r="21" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H21" s="37"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+    </row>
+    <row r="22" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+    </row>
+    <row r="23" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+    </row>
+    <row r="24" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="54"/>
+    </row>
+    <row r="25" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+    </row>
+    <row r="26" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="54"/>
+    </row>
+    <row r="27" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54"/>
+    </row>
+    <row r="28" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="54"/>
+    </row>
+    <row r="29" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+    </row>
+    <row r="30" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H30" s="121"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="68"/>
+    </row>
+    <row r="31" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+    </row>
+    <row r="32" spans="8:27" x14ac:dyDescent="0.2">
+      <c r="H32" s="64"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+    </row>
+    <row r="33" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H33" s="23"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+    </row>
+    <row r="34" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H34" s="69"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="94"/>
+    </row>
+    <row r="35" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H35" s="84"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="2"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79"/>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="95"/>
+    </row>
+    <row r="36" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H36" s="76"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="2"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="77"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="95"/>
+    </row>
+    <row r="37" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H37" s="76"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="2"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="77"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="95"/>
+    </row>
+    <row r="38" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H38" s="76"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="2"/>
+      <c r="U38" s="76"/>
+      <c r="V38" s="77"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="95"/>
+    </row>
+    <row r="39" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H39" s="76"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="2"/>
+      <c r="U39" s="76"/>
+      <c r="V39" s="77"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="79"/>
+      <c r="Y39" s="79"/>
+      <c r="Z39" s="95"/>
+    </row>
+    <row r="40" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H40" s="76"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="2"/>
+      <c r="U40" s="76"/>
+      <c r="V40" s="74"/>
+      <c r="W40" s="79"/>
+      <c r="X40" s="79"/>
+      <c r="Y40" s="79"/>
+      <c r="Z40" s="95"/>
+    </row>
+    <row r="41" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H41" s="76"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="U41" s="84"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="79"/>
+      <c r="X41" s="79"/>
+      <c r="Y41" s="79"/>
+      <c r="Z41" s="95"/>
+    </row>
+    <row r="42" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="77"/>
+      <c r="W42" s="74"/>
+      <c r="X42" s="79"/>
+      <c r="Y42" s="79"/>
+      <c r="Z42" s="95"/>
+    </row>
+    <row r="43" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H43" s="76"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="U43" s="76"/>
+      <c r="V43" s="77"/>
+      <c r="W43" s="74"/>
+      <c r="X43" s="79"/>
+      <c r="Y43" s="79"/>
+      <c r="Z43" s="78"/>
+    </row>
+    <row r="44" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H44" s="80"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="U44" s="80"/>
+      <c r="V44" s="85"/>
+      <c r="W44" s="81"/>
+      <c r="X44" s="81"/>
+      <c r="Y44" s="81"/>
+      <c r="Z44" s="96"/>
+    </row>
+    <row r="45" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H46" s="8"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="H2:AA2"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
